--- a/Analytics/Amazon Blog/amazon_final.xlsx
+++ b/Analytics/Amazon Blog/amazon_final.xlsx
@@ -2393,7 +2393,7 @@
         <v>646</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2451,7 +2451,7 @@
         <v>646</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2480,7 +2480,7 @@
         <v>646</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2509,7 +2509,7 @@
         <v>646</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2538,7 +2538,7 @@
         <v>646</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2567,7 +2567,7 @@
         <v>646</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2596,7 +2596,7 @@
         <v>646</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2625,7 +2625,7 @@
         <v>646</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2654,7 +2654,7 @@
         <v>646</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2683,7 +2683,7 @@
         <v>646</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2712,7 +2712,7 @@
         <v>646</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2741,7 +2741,7 @@
         <v>646</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2770,7 +2770,7 @@
         <v>646</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2799,7 +2799,7 @@
         <v>646</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2828,7 +2828,7 @@
         <v>646</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2857,7 +2857,7 @@
         <v>646</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2886,7 +2886,7 @@
         <v>646</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2915,7 +2915,7 @@
         <v>646</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2944,7 +2944,7 @@
         <v>646</v>
       </c>
       <c r="I21">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2973,7 +2973,7 @@
         <v>646</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3002,7 +3002,7 @@
         <v>646</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3031,7 +3031,7 @@
         <v>646</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3060,7 +3060,7 @@
         <v>646</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3089,7 +3089,7 @@
         <v>646</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3118,7 +3118,7 @@
         <v>646</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3147,7 +3147,7 @@
         <v>646</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3205,7 +3205,7 @@
         <v>646</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3263,7 +3263,7 @@
         <v>646</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3292,7 +3292,7 @@
         <v>646</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3321,7 +3321,7 @@
         <v>646</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3350,7 +3350,7 @@
         <v>646</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3379,7 +3379,7 @@
         <v>646</v>
       </c>
       <c r="I36">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3408,7 +3408,7 @@
         <v>646</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3437,7 +3437,7 @@
         <v>646</v>
       </c>
       <c r="I38">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3466,7 +3466,7 @@
         <v>646</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3553,7 +3553,7 @@
         <v>646</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3582,7 +3582,7 @@
         <v>646</v>
       </c>
       <c r="I43">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3611,7 +3611,7 @@
         <v>646</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3640,7 +3640,7 @@
         <v>646</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3669,7 +3669,7 @@
         <v>646</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3698,7 +3698,7 @@
         <v>646</v>
       </c>
       <c r="I47">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3727,7 +3727,7 @@
         <v>646</v>
       </c>
       <c r="I48">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3756,7 +3756,7 @@
         <v>646</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3785,7 +3785,7 @@
         <v>646</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3814,7 +3814,7 @@
         <v>646</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3843,7 +3843,7 @@
         <v>646</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3872,7 +3872,7 @@
         <v>646</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3901,7 +3901,7 @@
         <v>646</v>
       </c>
       <c r="I54">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3930,7 +3930,7 @@
         <v>646</v>
       </c>
       <c r="I55">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3959,7 +3959,7 @@
         <v>646</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3988,7 +3988,7 @@
         <v>646</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4017,7 +4017,7 @@
         <v>646</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4046,7 +4046,7 @@
         <v>646</v>
       </c>
       <c r="I59">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4075,7 +4075,7 @@
         <v>646</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4104,7 +4104,7 @@
         <v>646</v>
       </c>
       <c r="I61">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4133,7 +4133,7 @@
         <v>646</v>
       </c>
       <c r="I62">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4162,7 +4162,7 @@
         <v>646</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4191,7 +4191,7 @@
         <v>646</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4220,7 +4220,7 @@
         <v>646</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4249,7 +4249,7 @@
         <v>646</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4278,7 +4278,7 @@
         <v>646</v>
       </c>
       <c r="I67">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4307,7 +4307,7 @@
         <v>646</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4336,7 +4336,7 @@
         <v>646</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4365,7 +4365,7 @@
         <v>646</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4394,7 +4394,7 @@
         <v>646</v>
       </c>
       <c r="I71">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4452,7 +4452,7 @@
         <v>646</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4539,7 +4539,7 @@
         <v>646</v>
       </c>
       <c r="I76">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4568,7 +4568,7 @@
         <v>646</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4597,7 +4597,7 @@
         <v>646</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4626,7 +4626,7 @@
         <v>646</v>
       </c>
       <c r="I79">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4655,7 +4655,7 @@
         <v>646</v>
       </c>
       <c r="I80">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4684,7 +4684,7 @@
         <v>646</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4713,7 +4713,7 @@
         <v>646</v>
       </c>
       <c r="I82">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4742,7 +4742,7 @@
         <v>646</v>
       </c>
       <c r="I83">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4771,7 +4771,7 @@
         <v>646</v>
       </c>
       <c r="I84">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4800,7 +4800,7 @@
         <v>646</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4829,7 +4829,7 @@
         <v>646</v>
       </c>
       <c r="I86">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4858,7 +4858,7 @@
         <v>646</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4887,7 +4887,7 @@
         <v>646</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4916,7 +4916,7 @@
         <v>646</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4945,7 +4945,7 @@
         <v>646</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4974,7 +4974,7 @@
         <v>646</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5003,7 +5003,7 @@
         <v>646</v>
       </c>
       <c r="I92">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5032,7 +5032,7 @@
         <v>646</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5061,7 +5061,7 @@
         <v>646</v>
       </c>
       <c r="I94">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5090,7 +5090,7 @@
         <v>646</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5119,7 +5119,7 @@
         <v>646</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5148,7 +5148,7 @@
         <v>646</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5177,7 +5177,7 @@
         <v>646</v>
       </c>
       <c r="I98">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5206,7 +5206,7 @@
         <v>646</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5235,7 +5235,7 @@
         <v>646</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5264,7 +5264,7 @@
         <v>646</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5293,7 +5293,7 @@
         <v>646</v>
       </c>
       <c r="I102">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5322,7 +5322,7 @@
         <v>646</v>
       </c>
       <c r="I103">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5351,7 +5351,7 @@
         <v>646</v>
       </c>
       <c r="I104">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5380,7 +5380,7 @@
         <v>646</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5409,7 +5409,7 @@
         <v>646</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5438,7 +5438,7 @@
         <v>646</v>
       </c>
       <c r="I107">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5467,7 +5467,7 @@
         <v>646</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5496,7 +5496,7 @@
         <v>646</v>
       </c>
       <c r="I109">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5525,7 +5525,7 @@
         <v>646</v>
       </c>
       <c r="I110">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5554,7 +5554,7 @@
         <v>646</v>
       </c>
       <c r="I111">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5583,7 +5583,7 @@
         <v>646</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5612,7 +5612,7 @@
         <v>646</v>
       </c>
       <c r="I113">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5641,7 +5641,7 @@
         <v>646</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5670,7 +5670,7 @@
         <v>646</v>
       </c>
       <c r="I115">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5699,7 +5699,7 @@
         <v>646</v>
       </c>
       <c r="I116">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5728,7 +5728,7 @@
         <v>646</v>
       </c>
       <c r="I117">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5757,7 +5757,7 @@
         <v>646</v>
       </c>
       <c r="I118">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5815,7 +5815,7 @@
         <v>646</v>
       </c>
       <c r="I120">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5844,7 +5844,7 @@
         <v>646</v>
       </c>
       <c r="I121">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5873,7 +5873,7 @@
         <v>646</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5902,7 +5902,7 @@
         <v>646</v>
       </c>
       <c r="I123">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5931,7 +5931,7 @@
         <v>646</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5960,7 +5960,7 @@
         <v>646</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5989,7 +5989,7 @@
         <v>646</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6018,7 +6018,7 @@
         <v>646</v>
       </c>
       <c r="I127">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6047,7 +6047,7 @@
         <v>646</v>
       </c>
       <c r="I128">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6076,7 +6076,7 @@
         <v>646</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6105,7 +6105,7 @@
         <v>646</v>
       </c>
       <c r="I130">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6134,7 +6134,7 @@
         <v>646</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6163,7 +6163,7 @@
         <v>646</v>
       </c>
       <c r="I132">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6192,7 +6192,7 @@
         <v>646</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -6221,7 +6221,7 @@
         <v>646</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -6279,7 +6279,7 @@
         <v>646</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -6308,7 +6308,7 @@
         <v>646</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -6337,7 +6337,7 @@
         <v>646</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -6366,7 +6366,7 @@
         <v>646</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -6395,7 +6395,7 @@
         <v>646</v>
       </c>
       <c r="I140">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -6424,7 +6424,7 @@
         <v>646</v>
       </c>
       <c r="I141">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
